--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -575,7 +575,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44952.53710648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45987.58878472223</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45104.55762731482</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45463.6832175926</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>45639.60362268519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>45845.48775462963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>46031.75072916667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>45187</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44263.45643518519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44489.38467592592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44377.63120370371</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44377.63462962963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>44650</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>44432.39827546296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44357.42416666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44313</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44468.90585648148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>44621</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44588.81457175926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>44490.35126157408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44819.44469907408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44490.33898148148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44490.34688657407</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>44490</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>44314.52516203704</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44467.52157407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44480.43704861111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44313</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44313</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44313</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44313</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44362</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44739</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44713.68127314815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44480.44052083333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>44855.51241898148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>44490</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44599.41885416667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>44490.33709490741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>44382</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44382.36524305555</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>44465</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>44243.45318287037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44453.93173611111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44468</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>44383.72958333333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>44351.36626157408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44351.35524305556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>44358</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44550.6044675926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>44550.47495370371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44837</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44614.4587962963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44631.54024305556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44490.34033564815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>44525.59394675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44467.50569444444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44536.63584490741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>44816.67935185185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>44367.54793981482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>44367.56305555555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44550.45775462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>44367</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44865.44037037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44879.66258101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>44680</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>44510.39528935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44578</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>44648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>44803</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44880.34321759259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44489.57219907407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>44355</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44469</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44453.92891203704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>44453.91236111111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44453.90251157407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44453.90811342592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>44490.35384259259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>44536.41407407408</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44798</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>44490.33414351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44313</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>44786</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>45385.27788194444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>44866</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>45356.36820601852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45772.46607638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>44988</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45145.36064814815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>44988</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>44308.53366898148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>45166.43667824074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45030.44295138889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>45448.45487268519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>45211.58174768519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>45104.49902777778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>45051</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>45012.47341435185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>44964.6435300926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>45772</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>44910</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>44910.59276620371</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44953</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44953.43267361111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45635.555625</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>45635.56398148148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45749.91487268519</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>45225.30370370371</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>45097.43368055556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>45470.45113425926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>45600.54409722222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>44648</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>44855.51054398148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>45330</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>45330</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>45653.53244212963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>45463.64256944445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45343.5712037037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45749.94046296296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45448.40667824074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>45015</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>45434.39743055555</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44965</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44284</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45749.48251157408</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>45799</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>45798</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>45798</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>45754.95530092593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>45799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>45546.53074074074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44770.71555555556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44824</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>45166.62481481482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>45152</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>45152</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>45212.33314814815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>45755.52471064815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>45755.52888888889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>45804.57377314815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>45054.36605324074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>45054</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45300.51416666667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44903.48534722222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>45639.60688657407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>45807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>45888.82597222222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>45653.33739583333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>45810</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>45609.50959490741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>45239.37428240741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>45810</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>45812.69486111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>45036</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>45593.46152777778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45812.68910879629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44904.4882175926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>45817.35298611111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>45012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>45012.53863425926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>45817.32929398148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>45119.55042824074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>45223.64547453704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>45897.39640046296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>45818.44327546296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>45804.57568287037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>45900.89021990741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>45900.91521990741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>45898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44693</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>45900.92149305555</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>45336.34726851852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>45901.71055555555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>45558.60836805555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45753.91670138889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>45169</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>45229.43722222222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45236</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45902.48900462963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44489.64912037037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44453.89114583333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45070.44547453704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45904.36304398148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45904.41447916667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45169.63048611111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45701.44952546297</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45763.38950231481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45825.45712962963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45910.56497685185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>45911.38103009259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45357.93746527778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45048</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45671.92524305556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45604.65391203704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45096</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44420.37696759259</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45275.67641203704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45188</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45630.67711805556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45921.53559027778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45832.40869212963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45922.63916666667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45921.53244212963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>45921.53412037037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>45152</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>45152</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45921.53733796296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>45247</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>45097</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>45832.68423611111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>45832.63037037037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45832</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>45922</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>45925.4797800926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>45194</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>45412</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45630.69020833333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>45672.49380787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45551.67346064815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45607.54099537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>45604.6212962963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45604.63358796296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45839.59694444444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>45772</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45093.55341435185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44351</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45839.59424768519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>45933.63071759259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44994</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>45639.59314814815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45840.32392361111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45434.39630787037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>45938.4725925926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44819.41871527778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>45678.70277777778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>45169</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45190</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>45247</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>45845.47137731482</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44994</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>45845.63450231482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45845.63173611111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>45845.64554398148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45845.4816087963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45944.65075231482</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44900</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>45944.64800925926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>45583.66623842593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>45460.36145833333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>45946.42328703704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>45763.38690972222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45629</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>44972.3347337963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>45852.29333333333</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>45852.3605787037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>45852.36113425926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>45490</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>45856.58149305556</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45856.60353009259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>45951.42040509259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>45635.52116898148</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>45798</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>45952.59006944444</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>45952.66886574074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45697.95986111111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>45477.70762731481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45477.71984953704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>45195</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>45873.49216435185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>45411.64677083334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>45672.48421296296</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>45873.49657407407</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44469.58072916666</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>45649.30744212963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>45875.4878587963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44327.60373842593</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>45636.47858796296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>45498.65115740741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45462</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45877.70844907407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45567.45212962963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44966.5853125</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44979</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>45880.67791666667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>45237</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>45964</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45371</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45371.32840277778</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45659</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45401.36547453704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45971.39694444444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45254</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>45883.60167824074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
         <v>45971.36751157408</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>45600.4481712963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45134.49408564815</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45882.49587962963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45359.61893518519</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45749.91086805556</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45749.93467592593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45975.48006944444</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>45628.5562037037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45975.48150462963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45357</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>45887.64980324074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>45887.6512962963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45887.65325231481</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45975.39125</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>45841.62033564815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45978.7280787037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45978.76744212963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45233.59581018519</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45978</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45753.92043981481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>45753.92484953703</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45978.71898148148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44789.58445601852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44616.31997685185</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>45980.7216087963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44638.42206018518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45597.44087962963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45985.41133101852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>45985</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>45583.63947916667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>45985</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>45187.42778935185</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>44904.4912962963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45607.42164351852</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>46029.53555555556</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>45414.57553240741</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45441.36291666667</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>45988.44728009259</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>45988.57237268519</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44866.37520833333</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>45604.66521990741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>45040</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>46031.64157407408</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>46031.74462962963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>45764.29761574074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>46033.871875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45040</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>45994.68890046296</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>45342</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>45995.63108796296</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>45077.60732638889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>45653.53740740741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>45694.67922453704</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22349,7 +22349,7 @@
         <v>44539.4725925926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44539</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45642.66414351852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45754.9482175926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45999.52395833333</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44448.69263888889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44467</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>45593.45177083334</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45463.64422453703</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>44364.52954861111</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>45754.95871527777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45048</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45749.92576388889</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>45755.6825462963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44988</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>44946</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>45373.3705787037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>46003.5144212963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>44928.64778935185</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>45635.56027777777</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45400.56280092592</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>46002.41792824074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>46007.45020833334</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>46007.45549768519</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>45630.67303240741</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44960</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>45604.65027777778</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>46005.54738425926</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>46007.50033564815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>46048.59549768519</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>46008.91393518518</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>46008.92011574074</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>46008.92606481481</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45456.54077546296</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>46008.92285879629</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>46009.66655092593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>44403</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>46010.7765625</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45300.51850694444</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45153.905</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>45697.96215277778</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45757</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>46014.35886574074</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>46014.35109953704</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45483.6641087963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>46055.9103587963</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>46056.38706018519</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>46055.90466435185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>45274.53392361111</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>46055.90938657407</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>45609</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>46056</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>45636.48611111111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>44910.56928240741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>45629.63018518518</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>45187</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>45558.58697916667</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45002</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>44935</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44935</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>45149</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44402</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44879</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44438</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44462.65709490741</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>45590.62858796296</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26330,7 +26330,7 @@
         <v>45051</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26387,7 +26387,7 @@
         <v>45636.50067129629</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45636.50322916666</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45012</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45763.63188657408</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45763.6352662037</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45012.47793981482</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45749.48918981481</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>45561.58900462963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26868,7 +26868,7 @@
         <v>44726</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45554.57090277778</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45469.51027777778</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>44678</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45243</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45532.46266203704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45152</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45672.48787037037</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44379.40621527778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45499.71973379629</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44988</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44965</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44496</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45085.64541666667</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>44540.58988425926</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45211.5902662037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>45617.47127314815</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45583.65766203704</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45028.3874074074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45314.66820601852</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45609.60405092593</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45355.53172453704</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>45315</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>45469.71810185185</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>45531</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>45561</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>44930.4865162037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45635.54247685185</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>45635.55002314815</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45748.55140046297</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>44953</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>44903.35087962963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28814,7 +28814,7 @@
         <v>45349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>45754.37872685185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>45149</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>44641</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>45635.56686342593</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45607.43587962963</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29166,7 +29166,7 @@
         <v>45265</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29223,7 +29223,7 @@
         <v>45280.68394675926</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29280,7 +29280,7 @@
         <v>45370.65384259259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>44966.5765625</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>44966.57903935185</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>45266.47918981482</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>45390</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>45258.38972222222</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>45182</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>45609</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>45264.68284722222</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44631.5412037037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29865,7 +29865,7 @@
         <v>45586.62902777778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         <v>45653.3462037037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29984,7 +29984,7 @@
         <v>45630.69271990741</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>45757</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>45243</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44880.34582175926</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30212,7 +30212,7 @@
         <v>44900</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30269,7 +30269,7 @@
         <v>45567.44934027778</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30326,7 +30326,7 @@
         <v>45252.55077546297</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30383,7 +30383,7 @@
         <v>44523</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30440,7 +30440,7 @@
         <v>45751.77451388889</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30497,7 +30497,7 @@
         <v>44540.64025462963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30559,7 +30559,7 @@
         <v>45169</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30616,7 +30616,7 @@
         <v>44824</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30673,7 +30673,7 @@
         <v>45532.46113425926</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30730,7 +30730,7 @@
         <v>45604.58878472223</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30792,7 +30792,7 @@
         <v>45764.29541666667</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30849,7 +30849,7 @@
         <v>45644.37350694444</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30906,7 +30906,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44999</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31020,7 +31020,7 @@
         <v>45194</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         <v>44236</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31134,7 +31134,7 @@
         <v>45558.59898148148</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44525.63085648148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31258,7 +31258,7 @@
         <v>44550</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31315,7 +31315,7 @@
         <v>45749.46471064815</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31377,7 +31377,7 @@
         <v>45749.48458333333</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44896.30283564814</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>45213</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>45189.38503472223</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44960</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>45636.50546296296</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31729,7 +31729,7 @@
         <v>45676.66248842593</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>45048</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>45749.45815972222</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45776.50862268519</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45782.57774305555</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45785</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45789.87405092592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>45789.86465277777</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>45791.56214120371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>45790.60148148148</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>45790.89025462963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>45790.57209490741</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>45790.88415509259</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>45790.89461805556</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>45790.88809027777</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>45793.38538194444</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>45796.60194444445</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -575,7 +575,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44952.53710648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45987.58878472223</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45104.55762731482</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45463.6832175926</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>45639.60362268519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>45845.48775462963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>46031.75072916667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>45187</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44263.45643518519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44489.38467592592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44377.63120370371</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44377.63462962963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>44650</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>44432.39827546296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44357.42416666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44313</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44468.90585648148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>44621</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44588.81457175926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>44490.35126157408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44819.44469907408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44490.33898148148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44490.34688657407</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>44490</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>44314.52516203704</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44467.52157407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44480.43704861111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44313</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44313</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44313</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44313</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44362</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44739</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44713.68127314815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44480.44052083333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>44855.51241898148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>44490</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44599.41885416667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>44490.33709490741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>44382</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44382.36524305555</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>44465</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>44243.45318287037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44453.93173611111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44468</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>44383.72958333333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>44351.36626157408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44351.35524305556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>44358</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44550.6044675926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>44550.47495370371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44837</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44614.4587962963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44631.54024305556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44490.34033564815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>44525.59394675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44467.50569444444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44536.63584490741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>44816.67935185185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>44367.54793981482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>44367.56305555555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44550.45775462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>44367</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>44865.44037037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44879.66258101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>44680</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>44510.39528935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44578</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>44648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>44803</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44880.34321759259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44489.57219907407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>44355</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44469</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44453.92891203704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>44453.91236111111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>44453.90251157407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44453.90811342592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>44490.35384259259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>44536.41407407408</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44798</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>44490.33414351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44313</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>44786</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>45385.27788194444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>44866</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>45356.36820601852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>45772.46607638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>44988</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45145.36064814815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>44988</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>44308.53366898148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>45166.43667824074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45030.44295138889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>45448.45487268519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>45211.58174768519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>45104.49902777778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>45051</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>45012.47341435185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>44964.6435300926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>45772</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>44910</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>44910.59276620371</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>44953</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44953.43267361111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45635.555625</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>45635.56398148148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45749.91487268519</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>45225.30370370371</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>45097.43368055556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>45470.45113425926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>45600.54409722222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>44648</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>44855.51054398148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>45330</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>45330</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>45653.53244212963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>45463.64256944445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45343.5712037037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45749.94046296296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45448.40667824074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>45015</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>45434.39743055555</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44965</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44284</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45749.48251157408</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>45799</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>45798</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>45798</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>45754.95530092593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>45799</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>45546.53074074074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44770.71555555556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44824</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>45166.62481481482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>45152</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>45152</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>45212.33314814815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>45755.52471064815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>45755.52888888889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>45804.57377314815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>45054.36605324074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>45054</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45300.51416666667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44903.48534722222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>45639.60688657407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>45807</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>45888.82597222222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>45653.33739583333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>45810</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>45609.50959490741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>45239.37428240741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>45810</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>45812.69486111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>45036</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>45593.46152777778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45812.68910879629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44904.4882175926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>45817.35298611111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>45012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>45012.53863425926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>45817.32929398148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>45119.55042824074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>45223.64547453704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>45897.39640046296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>45818.44327546296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>45804.57568287037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>45900.89021990741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>45900.91521990741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>45898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44693</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>45900.92149305555</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>45336.34726851852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>45901.71055555555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>45558.60836805555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45753.91670138889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>45169</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>45229.43722222222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45236</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45902.48900462963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44489.64912037037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44453.89114583333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45070.44547453704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45904.36304398148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45904.41447916667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45169.63048611111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45701.44952546297</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45763.38950231481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45825.45712962963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45910.56497685185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>45911.38103009259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45357.93746527778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45048</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45671.92524305556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45604.65391203704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45096</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44420.37696759259</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45275.67641203704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45188</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45630.67711805556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45921.53559027778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45832.40869212963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45922.63916666667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45921.53244212963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>45921.53412037037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>45152</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>45152</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45921.53733796296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>45247</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>45097</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>45832.68423611111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>45832.63037037037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45832</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>45922</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>45925.4797800926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>45194</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>45412</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45630.69020833333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>45672.49380787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45551.67346064815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45607.54099537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>45604.6212962963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45604.63358796296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45839.59694444444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>45772</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45093.55341435185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44351</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45839.59424768519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>45933.63071759259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44994</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>45639.59314814815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45840.32392361111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45434.39630787037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>45938.4725925926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44819.41871527778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>45678.70277777778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>45169</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45190</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>45247</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>45845.47137731482</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44994</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>45845.63450231482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45845.63173611111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>45845.64554398148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45845.4816087963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45944.65075231482</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44900</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>45944.64800925926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>45583.66623842593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>45460.36145833333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>45946.42328703704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>45763.38690972222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45629</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>44972.3347337963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>45852.29333333333</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>45852.3605787037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>45852.36113425926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>45490</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>45856.58149305556</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45856.60353009259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>45951.42040509259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>45635.52116898148</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>45798</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>45952.59006944444</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>45952.66886574074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45697.95986111111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>45477.70762731481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45477.71984953704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>45195</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>45873.49216435185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>45411.64677083334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>45672.48421296296</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>45873.49657407407</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44469.58072916666</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>45649.30744212963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>45875.4878587963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44327.60373842593</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>45636.47858796296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>45498.65115740741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45462</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45877.70844907407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45567.45212962963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44966.5853125</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44979</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>45880.67791666667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>45237</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>45964</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45371</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45371.32840277778</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>45659</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>45401.36547453704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>45971.39694444444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45254</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>45883.60167824074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
         <v>45971.36751157408</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>45600.4481712963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45134.49408564815</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45882.49587962963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45359.61893518519</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45749.91086805556</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45749.93467592593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45975.48006944444</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>45628.5562037037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45975.48150462963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45357</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>45887.64980324074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>45887.6512962963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45887.65325231481</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45975.39125</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>45841.62033564815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45978.7280787037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45978.76744212963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45233.59581018519</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45978</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45753.92043981481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>45753.92484953703</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45978.71898148148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44789.58445601852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44616.31997685185</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>45980.7216087963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44638.42206018518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45597.44087962963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45985.41133101852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>45985</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>45583.63947916667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>45985</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>45187.42778935185</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>44904.4912962963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45607.42164351852</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>46029.53555555556</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>45414.57553240741</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45441.36291666667</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>45988.44728009259</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>45988.57237268519</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44866.37520833333</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>45604.66521990741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>45040</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>46031.64157407408</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>46031.74462962963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>45764.29761574074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>46033.871875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>45040</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>45994.68890046296</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>45342</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>45995.63108796296</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>45077.60732638889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>45653.53740740741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>45694.67922453704</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22349,7 +22349,7 @@
         <v>44539.4725925926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44539</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45642.66414351852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45754.9482175926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45999.52395833333</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44448.69263888889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44467</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>45593.45177083334</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45463.64422453703</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>44364.52954861111</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>45754.95871527777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45048</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45749.92576388889</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>45755.6825462963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44988</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>44946</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>45373.3705787037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>46003.5144212963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>44928.64778935185</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>45635.56027777777</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45400.56280092592</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>46002.41792824074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>46007.45020833334</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>46007.45549768519</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>45630.67303240741</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44960</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>45604.65027777778</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>46005.54738425926</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>46007.50033564815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>46048.59549768519</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>46008.91393518518</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>46008.92011574074</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>46008.92606481481</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>45456.54077546296</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>46008.92285879629</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>46009.66655092593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>44403</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>46010.7765625</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45300.51850694444</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45153.905</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>45697.96215277778</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45757</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>46014.35886574074</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>46014.35109953704</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45483.6641087963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>46055.9103587963</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>46056.38706018519</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>46055.90466435185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>45274.53392361111</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>46055.90938657407</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>45609</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>46056</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>45636.48611111111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>44910.56928240741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>45629.63018518518</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>45187</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>45558.58697916667</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45002</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>44935</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44935</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>45149</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44402</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44879</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44438</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44462.65709490741</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>45590.62858796296</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26330,7 +26330,7 @@
         <v>45051</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26387,7 +26387,7 @@
         <v>45636.50067129629</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45636.50322916666</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45012</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45763.63188657408</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45763.6352662037</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45012.47793981482</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45749.48918981481</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>45561.58900462963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26868,7 +26868,7 @@
         <v>44726</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45554.57090277778</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45469.51027777778</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>44678</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45469</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45243</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45532.46266203704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45152</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45672.48787037037</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44379.40621527778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45499.71973379629</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44988</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44965</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44496</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45085.64541666667</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>44540.58988425926</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45211.5902662037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>45617.47127314815</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45583.65766203704</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45028.3874074074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45314.66820601852</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45609.60405092593</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45355.53172453704</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>45315</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>45469.71810185185</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>45531</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>45561</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>44930.4865162037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45635.54247685185</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>45635.55002314815</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45748.55140046297</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>44953</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>44903.35087962963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28814,7 +28814,7 @@
         <v>45349</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>45754.37872685185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>45149</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>44641</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>45635.56686342593</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45607.43587962963</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29166,7 +29166,7 @@
         <v>45265</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29223,7 +29223,7 @@
         <v>45280.68394675926</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29280,7 +29280,7 @@
         <v>45370.65384259259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>44966.5765625</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>44966.57903935185</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>45266.47918981482</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>45390</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>45258.38972222222</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>45182</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>45609</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>45264.68284722222</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44631.5412037037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29865,7 +29865,7 @@
         <v>45586.62902777778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         <v>45653.3462037037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29984,7 +29984,7 @@
         <v>45630.69271990741</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>45757</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>45243</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>44880.34582175926</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30212,7 +30212,7 @@
         <v>44900</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30269,7 +30269,7 @@
         <v>45567.44934027778</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30326,7 +30326,7 @@
         <v>45252.55077546297</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30383,7 +30383,7 @@
         <v>44523</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30440,7 +30440,7 @@
         <v>45751.77451388889</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30497,7 +30497,7 @@
         <v>44540.64025462963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30559,7 +30559,7 @@
         <v>45169</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30616,7 +30616,7 @@
         <v>44824</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30673,7 +30673,7 @@
         <v>45532.46113425926</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30730,7 +30730,7 @@
         <v>45604.58878472223</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30792,7 +30792,7 @@
         <v>45764.29541666667</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30849,7 +30849,7 @@
         <v>45644.37350694444</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30906,7 +30906,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44999</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31020,7 +31020,7 @@
         <v>45194</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         <v>44236</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31134,7 +31134,7 @@
         <v>45558.59898148148</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44525.63085648148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31258,7 +31258,7 @@
         <v>44550</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31315,7 +31315,7 @@
         <v>45749.46471064815</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31377,7 +31377,7 @@
         <v>45749.48458333333</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44896.30283564814</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>45213</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>45189.38503472223</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44960</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>45636.50546296296</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31729,7 +31729,7 @@
         <v>45676.66248842593</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>45048</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>45749.45815972222</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45776.50862268519</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45782.57774305555</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45785</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45789.87405092592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>45789.86465277777</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>45791.56214120371</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32257,7 +32257,7 @@
         <v>45790.60148148148</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>45790.89025462963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>45790.57209490741</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>45790.88415509259</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>45790.89461805556</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>45790.88809027777</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>45793.38538194444</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>45796.60194444445</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -575,7 +575,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44952.53710648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45987.58878472223</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>46063</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45104.55762731482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45463.6832175926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45639.60362268519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45845.48775462963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46031.75072916667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>45187</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44263.45643518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44489.38467592592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44377.63120370371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44377.63462962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44432.39827546296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44642</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44357.42416666666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44313</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>44468.90585648148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44621</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44490.35126157408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44588.81457175926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44819.44469907408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44490.33898148148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44490.34688657407</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>44490</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44314.52516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44467.52157407408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44313</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44313</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44480.43704861111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44313</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44739</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44480.44052083333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>44713.68127314815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44490</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>44855.51241898148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>44599.41885416667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44490.33709490741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44382.36524305555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>44465</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44453.93173611111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44468</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>44383.72958333333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44358</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44351.36626157408</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>44351.35524305556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44550.47495370371</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44837</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>44550.6044675926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44614.4587962963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44631.54024305556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44490.34033564815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44525.59394675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44467.50569444444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44536.63584490741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44816.67935185185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44367.54793981482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44367.56305555555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44550.45775462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>44367</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44865.44037037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44879.66258101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44680</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>44510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44510.39528935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>44578</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44803</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44880.34321759259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44489.57219907407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44469</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44355</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44453.91236111111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44453.90251157407</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44453.92891203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44453.90811342592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44490.35384259259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44536.41407407408</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44490.33414351852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>44798</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>45385.27788194444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44313</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44786</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44866</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>45356.36820601852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>45772.46607638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>45145.36064814815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>44988</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>44706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45166.43667824074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45030.44295138889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44988</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44308.53366898148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>45448.45487268519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45211.58174768519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45104.49902777778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45051</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45012.47341435185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>44964.6435300926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45772</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45635.555625</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45635.56398148148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44953</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44953.43267361111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>44910</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>44910.59276620371</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>45749.91487268519</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>45097.43368055556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>45600.54409722222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45225.30370370371</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45470.45113425926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44648</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>44855.51054398148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45330</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45330</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>45343.5712037037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>45653.53244212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>45463.64256944445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45448.40667824074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>45749.94046296296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45051</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>45434.39743055555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>44284</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>45749.48251157408</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45754.95530092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>45546.53074074074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44770.71555555556</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>45755.52471064815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>45755.52888888889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>44824</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>45166.62481481482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>45054.36605324074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>45054</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>45300.51416666667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>45212.33314814815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>45152</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45152</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44903.48534722222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>45639.60688657407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>45593.46152777778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44904.4882175926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45012</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>45012.53863425926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45015</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45239.37428240741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>44965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>45036</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>45818.44327546296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>45119.55042824074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>45223.64547453704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44693</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>45336.34726851852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45888.82597222222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>45558.60836805555</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>45753.91670138889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>45169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>45229.43722222222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>45236</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>45825.45712962963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>45609.50959490741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44489.64912037037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44453.89114583333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>45070.44547453704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>45169.63048611111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>45701.44952546297</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>45832.40869212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>45357.93746527778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>45048</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>45832.68423611111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45897.39640046296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45671.92524305556</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>45832.63037037037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>45832</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>45804.57568287037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>45900.89021990741</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45900.91521990741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>45898</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>45412</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>45604.65391203704</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45900.92149305555</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>45901.71055555555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45607.54099537037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>45096</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44420.37696759259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45275.67641203704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>45902.48900462963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>45839.59694444444</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>45188</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>45630.67711805556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>45839.59424768519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>45152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45152</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45904.36304398148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45904.41447916667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>45247</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45097</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45763.38950231481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>45840.32392361111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>45194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45910.56497685185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>45911.38103009259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45630.69020833333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>45845.47137731482</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45845.63450231482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45845.63173611111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>45845.64554398148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>45845.4816087963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>45672.49380787037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>45551.67346064815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>45763.38690972222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>45604.6212962963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45604.63358796296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>45852.29333333333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45852.3605787037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45852.36113425926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45093.55341435185</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44351</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44916</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44895</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>45856.58149305556</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>45921.53559027778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>45856.60353009259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>45922.63916666667</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>45921.53244212963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45921.53412037037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45921.53733796296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45798</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>45639.59314814815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45925.4797800926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45434.39630787037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44819.41871527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>45873.49216435185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>45678.70277777778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>45672.48421296296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>45169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>45873.49657407407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>45190</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>45247</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44994</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45875.4878587963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>45343</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45583.66623842593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>45877.70844907407</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>45933.63071759259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>45460.36145833333</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>45629</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44972.3347337963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>45880.67791666667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>45490</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>45852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>45883.60167824074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>45600.4481712963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>45635.52116898148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>45882.49587962963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>45938.4725925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45628.5562037037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45697.95986111111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45477.70762731481</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>45477.71984953704</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>45195</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>45887.64980324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44930</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>45887.6512962963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>45887.65325231481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45411.64677083334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45944.65075231482</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45944.64800925926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44469.58072916666</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45649.30744212963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>45841.62033564815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44327.60373842593</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>45636.47858796296</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45946.42328703704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45498.65115740741</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>45462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>45951.42040509259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45952.59006944444</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45567.45212962963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44966.5853125</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44979</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45952.66886574074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45237</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45371</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45371.32840277778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45659</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45401.36547453704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45254</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45134.49408564815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>45359.61893518519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45749.91086805556</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45749.93467592593</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45357</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44551</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45233.59581018519</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45753.92043981481</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>45753.92484953703</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>45964</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44789.58445601852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44616.31997685185</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44638.42206018518</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>45971.39694444444</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>45597.44087962963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>45971.36751157408</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>45583.63947916667</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>45187.42778935185</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45975.48006944444</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45975.48150462963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>44904.4912962963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45975.39125</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45978.7280787037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45978.76744212963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45607.42164351852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45414.57553240741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45978</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>45978.71898148148</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>45980.7216087963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>45441.36291666667</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44866.37520833333</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>45604.66521990741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45985.41133101852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45985</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45040</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45764.29761574074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45040</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45988.44728009259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45988.57237268519</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45342</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45077.60732638889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>46033.871875</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45653.53740740741</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>45994.68890046296</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>45694.67922453704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44539.4725925926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44539</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>45995.63108796296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45642.66414351852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>45754.9482175926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44448.69263888889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44467</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>45593.45177083334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45463.64422453703</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>45999.52395833333</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44364.52954861111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45754.95871527777</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>45749.92576388889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>45755.6825462963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22279,7 +22279,7 @@
         <v>44988</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22336,7 +22336,7 @@
         <v>44946</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
         <v>45373.3705787037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44928.64778935185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22507,7 +22507,7 @@
         <v>45635.56027777777</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22569,7 +22569,7 @@
         <v>45400.56280092592</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>45630.67303240741</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>46003.5144212963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>44960</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>46002.41792824074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>45604.65027777778</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>46007.45020833334</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>46007.45549768519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>45456.54077546296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>46005.54738425926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>46007.50033564815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>46048.59549768519</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44403</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>46008.91393518518</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>46008.92011574074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23439,7 +23439,7 @@
         <v>46008.92606481481</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>46008.92285879629</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>46009.66655092593</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>45300.51850694444</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>45153.905</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>45697.96215277778</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>45757</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>46010.7765625</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>45483.6641087963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>45274.53392361111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>45609</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>46014.35886574074</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>46014.35109953704</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>45162</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>46055.9103587963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>46056.38706018519</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>46055.90466435185</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>45636.48611111111</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44910.56928240741</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24557,7 +24557,7 @@
         <v>45629.63018518518</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24614,7 +24614,7 @@
         <v>45187</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>45187</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>45558.58697916667</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45002</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>44935</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>44935</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>46055.90938657407</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>46056</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45149</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>44402</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>44879</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44438</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25308,7 +25308,7 @@
         <v>44462.65709490741</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45590.62858796296</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45051</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>46063.66885416667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45636.50067129629</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25603,7 +25603,7 @@
         <v>45636.50322916666</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45012</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>45763.63188657408</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45763.6352662037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>45012.47793981482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>45749.48918981481</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>45951</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>45561.58900462963</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>44726</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>45554.57090277778</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>45469.51027777778</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44678</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45469</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45243</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>46029.53555555556</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45532.46266203704</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45672.48787037037</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44379.40621527778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>45499.71973379629</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>44988</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>46071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>46031.74462962963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44496</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>46072.41702546296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>46031.64157407408</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>45085.64541666667</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44540.58988425926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>45211.5902662037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>45617.47127314815</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>45583.65766203704</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>45028.3874074074</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         <v>45314.66820601852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>45609.60405092593</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>45355.53172453704</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
         <v>45315</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>45469.71810185185</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>45531</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>45561</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>44930.4865162037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28020,7 +28020,7 @@
         <v>45635.54247685185</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>45635.55002314815</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>45748.55140046297</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44953</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28263,7 +28263,7 @@
         <v>44903.35087962963</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28320,7 +28320,7 @@
         <v>45349</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45754.37872685185</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>45635.56686342593</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>45607.43587962963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>45265</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>45280.68394675926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>45370.65384259259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44966.5765625</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44966.57903935185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>45266.47918981482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>45390</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>45258.38972222222</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>45182</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>45609</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>45264.68284722222</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44631.5412037037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>45586.62902777778</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45653.3462037037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45630.69271990741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45757</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45243</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44880.34582175926</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44900</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>45567.44934027778</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>45252.55077546297</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44523</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>45751.77451388889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44540.64025462963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>45169</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>45532.46113425926</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>45604.58878472223</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>45764.29541666667</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>45644.37350694444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44490</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44999</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>45194</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>45558.59898148148</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44525.63085648148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30707,7 +30707,7 @@
         <v>44550</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30764,7 +30764,7 @@
         <v>45749.46471064815</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>45749.48458333333</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44896.30283564814</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45213</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45189.38503472223</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44960</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45636.50546296296</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>45676.66248842593</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>45048</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>45749.45815972222</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>45776.50862268519</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>45782.57774305555</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>45785</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>45789.87405092592</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>45789.86465277777</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31649,7 +31649,7 @@
         <v>45791.56214120371</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>45790.60148148148</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31763,7 +31763,7 @@
         <v>45790.89025462963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31825,7 +31825,7 @@
         <v>45790.57209490741</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31882,7 +31882,7 @@
         <v>45790.88415509259</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31944,7 +31944,7 @@
         <v>45790.89461805556</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>45790.88809027777</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>45793.38538194444</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>45796.60194444445</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>45799</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>45798</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32296,7 +32296,7 @@
         <v>45798</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>45799</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>45804.57377314815</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>45807</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>45653.33739583333</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>45810</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>45810</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>45812.69486111111</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32762,7 +32762,7 @@
         <v>45812.68910879629</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>45817.35298611111</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>45817.32929398148</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -575,7 +575,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44952.53710648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45987.58878472223</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>46063</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45104.55762731482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45463.6832175926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45639.60362268519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45845.48775462963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46031.75072916667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>45187</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44263.45643518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44489.38467592592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44650</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44377.63120370371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44377.63462962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44432.39827546296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44642</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44357.42416666666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44313</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>44468.90585648148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44621</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44490.35126157408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44588.81457175926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44819.44469907408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44490.33898148148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44490.34688657407</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>44490</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44314.52516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44467.52157407408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44313</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44313</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44480.43704861111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44313</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44739</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44480.44052083333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>44713.68127314815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44490</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>44855.51241898148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>44599.41885416667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44490.33709490741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44382.36524305555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>44465</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44453.93173611111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44468</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>44383.72958333333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44358</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44351.36626157408</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>44351.35524305556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44550.47495370371</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44837</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>44550.6044675926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44614.4587962963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44631.54024305556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44490.34033564815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44525.59394675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44467.50569444444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44536.63584490741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44816.67935185185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44367.54793981482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44367.56305555555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44550.45775462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>44367</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44865.44037037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44879.66258101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44680</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>44510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44510.39528935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>44578</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44803</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44452</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44880.34321759259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44489.57219907407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44469</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44355</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44453.91236111111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44453.90251157407</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44453.92891203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44453.90811342592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44490.35384259259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44536.41407407408</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44490.33414351852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>44798</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>45385.27788194444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44313</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44786</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44866</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>45356.36820601852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>45772.46607638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>45145.36064814815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>44988</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>44706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45166.43667824074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45030.44295138889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44988</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44308.53366898148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>45448.45487268519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45211.58174768519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45104.49902777778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45051</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45051</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45012.47341435185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>44964.6435300926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45772</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45635.555625</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45635.56398148148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44953</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44953.43267361111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>44910</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>44910.59276620371</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>45749.91487268519</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>45097.43368055556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>45600.54409722222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45225.30370370371</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45470.45113425926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44648</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>44855.51054398148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45330</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45330</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>45343.5712037037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>45653.53244212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>45463.64256944445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45448.40667824074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>45749.94046296296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45051</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>45434.39743055555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>44284</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>45749.48251157408</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45754.95530092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>45546.53074074074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44770.71555555556</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>45755.52471064815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>45755.52888888889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>44824</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>45166.62481481482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>45054.36605324074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>45054</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>45300.51416666667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>45212.33314814815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>45152</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45152</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44903.48534722222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>45639.60688657407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>45593.46152777778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44904.4882175926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45012</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>45012.53863425926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45015</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45239.37428240741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>44965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>45036</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>45818.44327546296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>45119.55042824074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>45223.64547453704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44693</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>45336.34726851852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45888.82597222222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>45558.60836805555</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>45753.91670138889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>45169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>45229.43722222222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>45236</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>45825.45712962963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>45609.50959490741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44489.64912037037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44453.89114583333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>45070.44547453704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>45169.63048611111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>45701.44952546297</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>45832.40869212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>45357.93746527778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>45048</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>45832.68423611111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45897.39640046296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45671.92524305556</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>45832.63037037037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>45832</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>45804.57568287037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>45900.89021990741</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45900.91521990741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>45898</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>45412</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>45604.65391203704</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45900.92149305555</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>45901.71055555555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45607.54099537037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>45096</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44420.37696759259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45275.67641203704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>45902.48900462963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>45839.59694444444</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>45188</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>45630.67711805556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>45839.59424768519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>45152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45152</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45904.36304398148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>45904.41447916667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>45247</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45097</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45763.38950231481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>45840.32392361111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>45194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45910.56497685185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>45911.38103009259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45630.69020833333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>45845.47137731482</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45845.63450231482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45845.63173611111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>45845.64554398148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>45845.4816087963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>45672.49380787037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>45551.67346064815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>45763.38690972222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>45604.6212962963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45604.63358796296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>45852.29333333333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45852.3605787037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45852.36113425926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45772</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45093.55341435185</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44351</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>44916</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44895</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>45856.58149305556</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>45921.53559027778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>45856.60353009259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>45922.63916666667</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>45921.53244212963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45921.53412037037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45921.53733796296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45798</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>45639.59314814815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>45922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45925.4797800926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45434.39630787037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44819.41871527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>45873.49216435185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>45678.70277777778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>45672.48421296296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>45169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>45873.49657407407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>45190</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>45247</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44994</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45875.4878587963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>45343</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45583.66623842593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>45877.70844907407</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>45933.63071759259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>45460.36145833333</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>45629</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44972.3347337963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>45880.67791666667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>45490</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>45852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>45883.60167824074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>45600.4481712963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>45635.52116898148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>45882.49587962963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>45938.4725925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45628.5562037037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45697.95986111111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45477.70762731481</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>45477.71984953704</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>45195</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>45887.64980324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44930</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>45887.6512962963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>45887.65325231481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45411.64677083334</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45944.65075231482</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45944.64800925926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44469.58072916666</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45649.30744212963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>45841.62033564815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44327.60373842593</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>45636.47858796296</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45946.42328703704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45498.65115740741</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>45462</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>45951.42040509259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45952.59006944444</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45567.45212962963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44966.5853125</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44979</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45952.66886574074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45237</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45371</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45371.32840277778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45659</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45401.36547453704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45254</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45134.49408564815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>45359.61893518519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45749.91086805556</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45749.93467592593</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45357</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44551</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45233.59581018519</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45753.92043981481</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>45753.92484953703</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>45964</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44789.58445601852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44616.31997685185</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44638.42206018518</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>45971.39694444444</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>45597.44087962963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>45971.36751157408</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>45583.63947916667</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>45187.42778935185</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45975.48006944444</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45975.48150462963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>44904.4912962963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45975.39125</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45978.7280787037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45978.76744212963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45607.42164351852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45414.57553240741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45978</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>45978.71898148148</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>45980.7216087963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>45441.36291666667</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44866.37520833333</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>45604.66521990741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45985.41133101852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45985</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45040</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45764.29761574074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45040</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45988.44728009259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45988.57237268519</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45342</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45077.60732638889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>46033.871875</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45653.53740740741</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>45994.68890046296</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>45694.67922453704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44539.4725925926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44539</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>45995.63108796296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45642.66414351852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>45754.9482175926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44448.69263888889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44467</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>45593.45177083334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45463.64422453703</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>45999.52395833333</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44364.52954861111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>45754.95871527777</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>45749.92576388889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>45755.6825462963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22279,7 +22279,7 @@
         <v>44988</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22336,7 +22336,7 @@
         <v>44946</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
         <v>45373.3705787037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44928.64778935185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22507,7 +22507,7 @@
         <v>45635.56027777777</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22569,7 +22569,7 @@
         <v>45400.56280092592</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>45630.67303240741</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22683,7 +22683,7 @@
         <v>46003.5144212963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>44960</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>46002.41792824074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>45604.65027777778</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>46007.45020833334</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>46007.45549768519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>45456.54077546296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>46005.54738425926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>46007.50033564815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>46048.59549768519</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44403</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>46008.91393518518</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>46008.92011574074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23439,7 +23439,7 @@
         <v>46008.92606481481</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>46008.92285879629</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>46009.66655092593</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>45300.51850694444</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>45153.905</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>45697.96215277778</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>45757</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>46010.7765625</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>45483.6641087963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>45274.53392361111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>45609</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>46014.35886574074</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>46014.35109953704</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>45162</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>46055.9103587963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>46056.38706018519</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>46055.90466435185</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>45636.48611111111</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44910.56928240741</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24557,7 +24557,7 @@
         <v>45629.63018518518</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24614,7 +24614,7 @@
         <v>45187</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>45187</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>45558.58697916667</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45002</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>44935</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>44935</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>46055.90938657407</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>46056</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45149</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>44402</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>44879</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44438</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25308,7 +25308,7 @@
         <v>44462.65709490741</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45590.62858796296</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45051</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>46063.66885416667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45636.50067129629</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25603,7 +25603,7 @@
         <v>45636.50322916666</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45012</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>45763.63188657408</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45763.6352662037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>45012.47793981482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>45749.48918981481</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>45951</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>45561.58900462963</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>44726</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>45554.57090277778</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>45469.51027777778</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44678</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45469</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45243</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>46029.53555555556</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45532.46266203704</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45152</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45672.48787037037</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44379.40621527778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>45499.71973379629</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>44988</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>46071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>46031.74462962963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44496</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>46072.41702546296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>46031.64157407408</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>45085.64541666667</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44540.58988425926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>45211.5902662037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>45617.47127314815</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>45583.65766203704</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>45028.3874074074</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         <v>45314.66820601852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>45609.60405092593</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>45355.53172453704</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
         <v>45315</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>45469.71810185185</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>45531</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>45561</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>44930.4865162037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28020,7 +28020,7 @@
         <v>45635.54247685185</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>45635.55002314815</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>45748.55140046297</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44953</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28263,7 +28263,7 @@
         <v>44903.35087962963</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28320,7 +28320,7 @@
         <v>45349</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45754.37872685185</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>45635.56686342593</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>45607.43587962963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>45265</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>45280.68394675926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>45370.65384259259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44966.5765625</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44966.57903935185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>45266.47918981482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>45390</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>45258.38972222222</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>45182</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>45609</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>45264.68284722222</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44631.5412037037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>45586.62902777778</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45653.3462037037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45630.69271990741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45757</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45243</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44880.34582175926</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44900</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>45567.44934027778</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>45252.55077546297</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44523</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>45751.77451388889</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44540.64025462963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>45169</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>45532.46113425926</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>45604.58878472223</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>45764.29541666667</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>45644.37350694444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44490</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44999</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>45194</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>45558.59898148148</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44525.63085648148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30707,7 +30707,7 @@
         <v>44550</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30764,7 +30764,7 @@
         <v>45749.46471064815</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>45749.48458333333</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44896.30283564814</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45213</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45189.38503472223</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44960</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45636.50546296296</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>45676.66248842593</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>45048</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>45749.45815972222</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>45776.50862268519</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>45782.57774305555</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>45785</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>45789.87405092592</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>45789.86465277777</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31649,7 +31649,7 @@
         <v>45791.56214120371</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>45790.60148148148</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31763,7 +31763,7 @@
         <v>45790.89025462963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31825,7 +31825,7 @@
         <v>45790.57209490741</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31882,7 +31882,7 @@
         <v>45790.88415509259</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31944,7 +31944,7 @@
         <v>45790.89461805556</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>45790.88809027777</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32068,7 +32068,7 @@
         <v>45793.38538194444</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
         <v>45796.60194444445</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>45799</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32239,7 +32239,7 @@
         <v>45798</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32296,7 +32296,7 @@
         <v>45798</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>45799</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>45804.57377314815</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>45807</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>45653.33739583333</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>45810</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>45810</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>45812.69486111111</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32762,7 +32762,7 @@
         <v>45812.68910879629</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>45817.35298611111</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>45817.32929398148</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -575,7 +575,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44952.53710648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45987.58878472223</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>46063</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45104.55762731482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45463.6832175926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45845.48775462963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45187</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46031.75072916667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>45639.60362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44263.45643518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44489.38467592592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44377.63120370371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44377.63462962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44432.39827546296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44650</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44357.42416666666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44313</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>44468.90585648148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44621</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44490.35126157408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44588.81457175926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44819.44469907408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44490.33898148148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44490.34688657407</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>44490</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44314.52516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44467.52157407408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44480.43704861111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44313</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44313</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44313</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44739</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44480.44052083333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>44713.68127314815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44855.51241898148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>44490</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>44599.41885416667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44490.33709490741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44382.36524305555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>44453.93173611111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44468</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44465</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>44383.72958333333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44358</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44351.36626157408</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>44351.35524305556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44550.47495370371</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44550.6044675926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44837</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44614.4587962963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44631.54024305556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44490.34033564815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44525.59394675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44467.50569444444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44536.63584490741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44816.67935185185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44367.54793981482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44367.56305555555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44550.45775462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>44367</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44865.44037037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44879.66258101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44680</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>44510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44510.39528935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>44578</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44452</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44803</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44880.34321759259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44489.57219907407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44355</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44469</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44453.91236111111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44453.90251157407</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44453.92891203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44453.90811342592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44490.35384259259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44536.41407407408</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44490.33414351852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>44798</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>44364.52954861111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44379.40621527778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44490</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>45371</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>45371.32840277778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>45434.39630787037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>45252.55077546297</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>45749.48918981481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45300.51850694444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45441.36291666667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45754.9482175926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44910.56928240741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45463.64422453703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44420.37696759259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44539.4725925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>44539</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>44448.69263888889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44467</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>45342</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>45275.67641203704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>44966.5765625</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44966.57903935185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44966.5853125</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44540.58988425926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44903.35087962963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44903.48534722222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44979</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>45586.62902777778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45635.52116898148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44895</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>45635.55002314815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>45635.56398148148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>45499.71973379629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>45649.30744212963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44988</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44489.64912037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45804.57377314815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>45015</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>45882.49587962963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44965</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>45554.57090277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>45343</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>45887.64980324074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>45887.6512962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>45810</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45807</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>45887.65325231481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>45653.33739583333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>45810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>45841.62033564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>45546.53074074074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>45609.50959490741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>45628.5562037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>45401.36547453704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>45755.6825462963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>45812.69486111111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>45225.30370370371</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>45636.47858796296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>45812.68910879629</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44904.4882175926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>45561</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45817.35298611111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>45653.3462037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>45888.82597222222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44935</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44935</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>45817.32929398148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>45818.44327546296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>45583.66623842593</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>45051</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44953</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44953.43267361111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44964.6435300926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>45772.46607638889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>45898</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>45825.45712962963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>45897.39640046296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>45901.71055555555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>45902.48900462963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>45900.89021990741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>45900.91521990741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45900.92149305555</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45804.57568287037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44930.4865162037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45904.36304398148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>45904.41447916667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>45630.67303240741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>45832.68423611111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45832.40869212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>45832.63037037037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44638.42206018518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45093.55341435185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45772</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44994</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44994</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45607.54099537037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45412</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>45763.38950231481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45280.68394675926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45754.95530092593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>45910.56497685185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>45357.93746527778</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>45839.59694444444</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44965</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45840.32392361111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45839.59424768519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>45567.44934027778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>45028.3874074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>45629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>45911.38103009259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44631.5412037037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44960</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>45845.4816087963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>45845.47137731482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45845.64554398148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>45845.63173611111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>45845.63450231482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>45012.47793981482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45166.43667824074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>45852.36113425926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45763.38690972222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>45852.29333333333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>45852.3605787037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>45583.65766203704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>45012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45856.58149305556</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45856.60353009259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45617.47127314815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>45630.69271990741</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>45697.95986111111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>45798</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>45749.91487268519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45672.48787037037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>45921.53733796296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45921.53244212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45921.53412037037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45922.63916666667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45921.53559027778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45629.63018518518</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45922</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45635.56027777777</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>45748.55140046297</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>45925.4797800926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44313</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>45672.48421296296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>45873.49657407407</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>45873.49216435185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>45694.67922453704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>45875.4878587963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>45152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>45152</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>45653.53244212963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45636.48611111111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>45880.67791666667</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>45223.64547453704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>44855.51054398148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>45030.44295138889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>45877.70844907407</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>45237</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45166.62481481482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45749.45815972222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>45600.4481712963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>45678.70277777778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45933.63071759259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44351</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>45852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44789.58445601852</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44525.63085648148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44988</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45883.60167824074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44879</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>45070.44547453704</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>45938.4725925926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45749.91086805556</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45749.93467592593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45077.60732638889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>45944.64800925926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>44910</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>45944.65075231482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>45213</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>45946.42328703704</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44999</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44868</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>45951.42040509259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>45096</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>45600.54409722222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45952.59006944444</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44960</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45952.66886574074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45040</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44453.89114583333</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>45597.44087962963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>45448.40667824074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45330</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45330</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45051</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45604.66521990741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45182</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45561.58900462963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>45609.60405092593</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45964</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44930</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45532.46266203704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44462.65709490741</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45152</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45162</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>45470.45113425926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45971.36751157408</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>45971.39694444444</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>45477.70762731481</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45477.71984953704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45134.49408564815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>45975.48150462963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45609</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45012.47341435185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45247</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45085.64541666667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>45978.71898148148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45975.48006944444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45975.39125</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45978.7280787037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>45642.66414351852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45048</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45048</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>45978.76744212963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>45980.7216087963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>45212.33314814815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45639.60688657407</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45336.34726851852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44616.31997685185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45274.53392361111</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45590.62858796296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>45985.41133101852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45985</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>45985</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>45469</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45988.44728009259</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>45609</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>45988.57237268519</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>45036</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44551</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>45701.44952546297</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>45636.50067129629</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45636.50322916666</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>45551.67346064815</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45169.63048611111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45149</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45994.68890046296</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45635.54247685185</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>45995.63108796296</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45119.55042824074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45639.59314814815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>45604.58878472223</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>45190</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>45097.43368055556</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>45999.52395833333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>45558.59898148148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45051</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>46002.41792824074</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>45659</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>46003.5144212963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>45604.65027777778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45676.66248842593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>46005.54738425926</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45697.96215277778</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45653.53740740741</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>45754.37872685185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>45757</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>46048.59549768519</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44648</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>46007.45020833334</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44641</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>45754.95871527777</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45414.57553240741</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>46007.45549768519</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>46007.50033564815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>45456.54077546296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>46009.66655092593</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>46008.92285879629</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>45236</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>45211.58174768519</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>45211.5902662037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23382,7 +23382,7 @@
         <v>45187.42778935185</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23439,7 +23439,7 @@
         <v>46008.92606481481</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>46008.91393518518</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>46008.92011574074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>46055.90938657407</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>46056.38706018519</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>46055.90466435185</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>46014.35886574074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>46055.9103587963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>45772</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>46010.7765625</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44786</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>46056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>46014.35109953704</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44824</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>45187</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>45187</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>45753.91670138889</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>45229.43722222222</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>45243</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>45265</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>45749.92576388889</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24671,7 +24671,7 @@
         <v>45749.94046296296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>45315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>45757</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>45239.37428240741</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>45314.66820601852</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>46063.66885416667</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>45355.53172453704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>44496</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>44819.41871527778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45300.51416666667</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45755.52471064815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45755.52888888889</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44540.64025462963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>45258.38972222222</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45951</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>46072.41702546296</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>46071</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45264.68284722222</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>46029.53555555556</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25779,7 +25779,7 @@
         <v>45195</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
         <v>45233.59581018519</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         <v>45630.67711805556</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45411.64677083334</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>46031.64157407408</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45469.51027777778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>45532.46113425926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44402</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>46033.871875</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>45583.63947916667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>45630.69020833333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26416,7 +26416,7 @@
         <v>45644.37350694444</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>46031.74462962963</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26535,7 +26535,7 @@
         <v>45558.60836805555</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>44438</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>44706</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44327.60373842593</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44900</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>45400.56280092592</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>44469.58072916666</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>44770.71555555556</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>44693</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>45390</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44726</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44308.53366898148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>45434.39743055555</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44896.30283564814</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>46056</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45169</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45558.58697916667</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45343.5712037037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44953</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>44403</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45012</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>45012.53863425926</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>45604.65391203704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27876,7 +27876,7 @@
         <v>44972.3347337963</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27933,7 +27933,7 @@
         <v>44904.4912962963</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         <v>44910.59276620371</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>45531</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44946</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45593.45177083334</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45593.46152777778</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>45636.50546296296</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44866</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>45243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>45054.36605324074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45054</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>45349</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>44824</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45254</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>45189.38503472223</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>45356.36820601852</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28870,7 +28870,7 @@
         <v>45490</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28927,7 +28927,7 @@
         <v>45359.61893518519</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28984,7 +28984,7 @@
         <v>45607.43587962963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>45483.6641087963</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>45153.905</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>45753.92043981481</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>45753.92484953703</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>45040</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>45462</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>45145.36064814815</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>45048</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45607.42164351852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45149</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44523</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>45247</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>44866.37520833333</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>45385.27788194444</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44880.34582175926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>45469.71810185185</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>45169</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>45763.63188657408</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>45763.6352662037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>45051</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>45194</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>45460.36145833333</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>45104.49902777778</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>44284</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         <v>44928.64778935185</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>45194</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>45002</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>45567.45212962963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>45604.6212962963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>44678</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>45373.3705787037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45463.64256944445</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45635.56686342593</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30987,7 +30987,7 @@
         <v>45604.63358796296</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31049,7 +31049,7 @@
         <v>45749.46471064815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>45749.48458333333</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45498.65115740741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>45448.45487268519</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>45751.77451388889</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>45357</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>45635.555625</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>45370.65384259259</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>45671.92524305556</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>45764.29541666667</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>45764.29761574074</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>45749.48251157408</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>45266.47918981482</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>45672.49380787037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>45776.50862268519</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>45782.57774305555</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32053,7 +32053,7 @@
         <v>45785</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>45790.57209490741</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>45789.87405092592</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>45790.60148148148</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>45789.86465277777</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>45790.89025462963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>45791.56214120371</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32467,7 +32467,7 @@
         <v>45790.88415509259</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>45790.89461805556</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>45790.88809027777</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32653,7 +32653,7 @@
         <v>45793.38538194444</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32710,7 +32710,7 @@
         <v>45796.60194444445</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>45798</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>45798</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>45799</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45799</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>

--- a/Översikt VAGGERYD.xlsx
+++ b/Översikt VAGGERYD.xlsx
@@ -575,7 +575,7 @@
         <v>45033</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44818</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44952.53710648148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45987.58878472223</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>46063</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45104.55762731482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45463.6832175926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45845.48775462963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45187</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>46031.75072916667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>45639.60362268519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44263.45643518519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44489.38467592592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44377.63120370371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44377.63462962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44432.39827546296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44650</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44357.42416666666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44475</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44313</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>44468.90585648148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44621</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44490.35126157408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44588.81457175926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44819.44469907408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44490.33898148148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44490.34688657407</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>44490</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44314.52516203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44467.52157407408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44480.43704861111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44313</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44313</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44313</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44739</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44480.44052083333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>44713.68127314815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44855.51241898148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>44490</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>44599.41885416667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44490.33709490741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44382.36524305555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>44453.93173611111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44468</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44465</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>44383.72958333333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44358</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44351.36626157408</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>44351.35524305556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44550.47495370371</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44550.6044675926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44837</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44614.4587962963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44631.54024305556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44490.34033564815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44525.59394675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44467.50569444444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44536.63584490741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44816.67935185185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44367.54793981482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44367.56305555555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44550.45775462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>44367</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44865.44037037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44879.66258101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44680</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>44510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44510.39528935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>44578</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44648</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44452</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44803</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44880.34321759259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44489.57219907407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44355</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44469</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44453.91236111111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44453.90251157407</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44453.92891203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44453.90811342592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44490.35384259259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44536.41407407408</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44648</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44490.33414351852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>44798</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>44364.52954861111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44379.40621527778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44490</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>45371</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>45371.32840277778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>45434.39630787037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>45252.55077546297</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>45749.48918981481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45300.51850694444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45441.36291666667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45754.9482175926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44910.56928240741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45463.64422453703</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44420.37696759259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44539.4725925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>44539</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>44448.69263888889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44467</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>45342</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>45275.67641203704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>44966.5765625</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44966.57903935185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44966.5853125</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44540.58988425926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44903.35087962963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44903.48534722222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44979</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>45586.62902777778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45635.52116898148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44895</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>45635.55002314815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>45635.56398148148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>45499.71973379629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>45649.30744212963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44988</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44489.64912037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45804.57377314815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>45015</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>45882.49587962963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44965</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>45554.57090277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>45343</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>45887.64980324074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>45887.6512962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>45810</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45807</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>45887.65325231481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>45653.33739583333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>45810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>45841.62033564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>45546.53074074074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>45609.50959490741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>45628.5562037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>45401.36547453704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>45755.6825462963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>45812.69486111111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>45225.30370370371</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>45636.47858796296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>45812.68910879629</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44904.4882175926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>45561</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45817.35298611111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>45653.3462037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>45888.82597222222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44935</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44935</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>45817.32929398148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>45818.44327546296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>45583.66623842593</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>45051</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44953</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44953.43267361111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44964.6435300926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>45772.46607638889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>45898</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>45825.45712962963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>45897.39640046296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>45901.71055555555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>45902.48900462963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>45900.89021990741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>45900.91521990741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45900.92149305555</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45804.57568287037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44930.4865162037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45904.36304398148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>45904.41447916667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>45630.67303240741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>45832.68423611111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45832.40869212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>45832.63037037037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44638.42206018518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45093.55341435185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45772</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44994</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44994</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45607.54099537037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45412</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>45763.38950231481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45280.68394675926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45754.95530092593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>45910.56497685185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>45357.93746527778</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>45839.59694444444</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44965</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45840.32392361111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45839.59424768519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>45567.44934027778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>45028.3874074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>45629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>45911.38103009259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44631.5412037037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44960</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>45845.4816087963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>45845.47137731482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45845.64554398148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>45845.63173611111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>45845.63450231482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>45012.47793981482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45166.43667824074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>45852.36113425926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45763.38690972222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>45852.29333333333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>45852.3605787037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>45583.65766203704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>45012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45856.58149305556</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45856.60353009259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45617.47127314815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>45630.69271990741</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>45697.95986111111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>45798</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>45749.91487268519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45672.48787037037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>45921.53733796296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45921.53244212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45921.53412037037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45922.63916666667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45921.53559027778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45629.63018518518</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45922</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45635.56027777777</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>45748.55140046297</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>45925.4797800926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44313</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>45672.48421296296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>45873.49657407407</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>45873.49216435185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>45694.67922453704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>45875.4878587963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>45152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>45152</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>45653.53244212963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45636.48611111111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>45880.67791666667</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>45223.64547453704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>44855.51054398148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>45030.44295138889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>45877.70844907407</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>45237</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>45166.62481481482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45749.45815972222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>45600.4481712963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>45678.70277777778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45933.63071759259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44351</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>45852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44789.58445601852</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44525.63085648148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44988</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45883.60167824074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44879</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>45070.44547453704</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>45938.4725925926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45749.91086805556</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45749.93467592593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45077.60732638889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>45944.64800925926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>44910</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44916</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>45944.65075231482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>45213</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>45946.42328703704</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44999</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44868</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>45951.42040509259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>45096</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>45600.54409722222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45952.59006944444</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44960</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45952.66886574074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45040</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44453.89114583333</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>45597.44087962963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>45448.40667824074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45330</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45330</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45051</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45604.66521990741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45182</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45561.58900462963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>45609.60405092593</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45964</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44930</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45532.46266203704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44462.65709490741</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45152</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45162</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>45470.45113425926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45971.36751157408</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>45971.39694444444</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>45477.70762731481</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45477.71984953704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45134.49408564815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>45975.48150462963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45609</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>45012.47341435185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45247</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45085.64541666667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>45978.71898148148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45975.48006944444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45975.39125</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45978.7280787037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>45642.66414351852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45048</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45048</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>45978.76744212963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>45980.7216087963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>45212.33314814815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45639.60688657407</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45336.34726851852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44616.31997685185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45274.53392361111</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45590.62858796296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>45985.41133101852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45985</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>45985</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>45469</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45988.44728009259</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>45609</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>45988.57237268519</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>45036</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44551</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>45701.44952546297</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>45636.50067129629</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45636.50322916666</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>45551.67346064815</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45169.63048611111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45149</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45994.68890046296</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45635.54247685185</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>45995.63108796296</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45119.55042824074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45639.59314814815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>45604.58878472223</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>45190</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>45097.43368055556</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>45999.52395833333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>45558.59898148148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45051</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>46002.41792824074</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>45659</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>46003.5144212963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>45604.65027777778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45676.66248842593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>46005.54738425926</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45697.96215277778</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45653.53740740741</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>45754.37872685185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>45757</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>46048.59549768519</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44648</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>46007.45020833334</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44641</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>45754.95871527777</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45414.57553240741</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>46007.45549768519</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>46007.50033564815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>45456.54077546296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>46009.66655092593</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>46008.92285879629</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>45236</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>45211.58174768519</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>45211.5902662037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23382,7 +23382,7 @@
         <v>45187.42778935185</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23439,7 +23439,7 @@
         <v>46008.92606481481</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>46008.91393518518</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>46008.92011574074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>46055.90938657407</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>46056.38706018519</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>46055.90466435185</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>46014.35886574074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>46055.9103587963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>45772</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>46010.7765625</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44786</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>46056</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>46014.35109953704</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44824</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>45187</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>45187</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>45753.91670138889</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>45229.43722222222</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>45243</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>45265</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>45749.92576388889</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24671,7 +24671,7 @@
         <v>45749.94046296296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>45315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>45757</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>45239.37428240741</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>45314.66820601852</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>46063.66885416667</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>45355.53172453704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>44496</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>44819.41871527778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45300.51416666667</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45755.52471064815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45755.52888888889</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44540.64025462963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>45258.38972222222</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45951</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>46072.41702546296</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>46071</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45264.68284722222</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>46029.53555555556</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25779,7 +25779,7 @@
         <v>45195</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
         <v>45233.59581018519</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         <v>45630.67711805556</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>45411.64677083334</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>46031.64157407408</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45469.51027777778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>45532.46113425926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44402</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>46033.871875</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>45583.63947916667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>45630.69020833333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26416,7 +26416,7 @@
         <v>45644.37350694444</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>46031.74462962963</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26535,7 +26535,7 @@
         <v>45558.60836805555</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26597,7 +26597,7 @@
         <v>44438</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>44706</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44327.60373842593</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44900</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>45400.56280092592</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>44469.58072916666</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>44770.71555555556</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>44693</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>45390</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44726</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44308.53366898148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>45434.39743055555</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44896.30283564814</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>46056</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45169</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45558.58697916667</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45343.5712037037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44953</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>44403</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45012</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>45012.53863425926</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>45604.65391203704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27876,7 +27876,7 @@
         <v>44972.3347337963</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27933,7 +27933,7 @@
         <v>44904.4912962963</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         <v>44910.59276620371</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>45531</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44946</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45593.45177083334</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45593.46152777778</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>45636.50546296296</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44866</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>45243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>45054.36605324074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45054</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>45349</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>44824</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45254</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>45189.38503472223</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>45356.36820601852</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28870,7 +28870,7 @@
         <v>45490</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28927,7 +28927,7 @@
         <v>45359.61893518519</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28984,7 +28984,7 @@
         <v>45607.43587962963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>45483.6641087963</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>45153.905</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>45753.92043981481</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>45753.92484953703</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>45040</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>45462</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>45145.36064814815</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>45048</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45607.42164351852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45149</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44523</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>45247</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>44866.37520833333</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>45385.27788194444</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44880.34582175926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>45469.71810185185</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>45169</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>45763.63188657408</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>45763.6352662037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>45051</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>45194</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>45460.36145833333</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>45104.49902777778</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>44284</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         <v>44928.64778935185</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>45194</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>45002</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>45567.45212962963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>45604.6212962963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>44678</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>45373.3705787037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45463.64256944445</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45635.56686342593</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30987,7 +30987,7 @@
         <v>45604.63358796296</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31049,7 +31049,7 @@
         <v>45749.46471064815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>45749.48458333333</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45498.65115740741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>45448.45487268519</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>45751.77451388889</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>45357</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>45635.555625</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>45370.65384259259</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>45671.92524305556</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>45764.29541666667</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>45764.29761574074</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>45749.48251157408</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>45266.47918981482</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>45672.49380787037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>45776.50862268519</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>45782.57774305555</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32053,7 +32053,7 @@
         <v>45785</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>45790.57209490741</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>45789.87405092592</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>45790.60148148148</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>45789.86465277777</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>45790.89025462963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>45791.56214120371</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32467,7 +32467,7 @@
         <v>45790.88415509259</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>45790.89461805556</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>45790.88809027777</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32653,7 +32653,7 @@
         <v>45793.38538194444</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32710,7 +32710,7 @@
         <v>45796.60194444445</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>45798</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>45798</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>45799</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45799</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
